--- a/results/pvalue_OFFSIDES_all_enzyme_AUPR.xlsx
+++ b/results/pvalue_OFFSIDES_all_enzyme_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.138</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.197</t>
+          <t>2.539</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.177</t>
+          <t>4.576</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.214</t>
+          <t>4.751</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.926</t>
+          <t>1.847</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.414</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>12.175</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
